--- a/evalution.xlsx
+++ b/evalution.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>Users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -97,17 +97,34 @@
     <t>MF (popularity_time)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>SVD (popularity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF (popularity)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_SELF (popularity_count_time)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MF_SELF (explicit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
-    <numFmt numFmtId="177" formatCode="#,##0.000_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0_ "/>
-    <numFmt numFmtId="181" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
+    <numFmt numFmtId="177" formatCode="#,##0_ "/>
+    <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
+    <numFmt numFmtId="179" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -128,6 +145,24 @@
       <color theme="1"/>
       <name val="Courier"/>
     </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="新細明體"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -146,25 +181,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="181" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -178,6 +226,1733 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Precesion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> @ topK</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (count)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.13567839</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14321608</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14154104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13756281</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13869347</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13358459</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.12849964</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12782663</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12311558</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11733668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (count)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.03015075</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03266332</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.02763819</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.02324121</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02110553</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.02386935</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.022972</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02229899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02233389</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0218593</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14070352</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1281407</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.13400335</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13630653</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13768844</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.13525963</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13496052</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12845477</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12255723</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11582915</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.02261307</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.03643216</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.03936348</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.03454774</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.03417085</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.03224456</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.03086863</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.02920854</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.02819654</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0281407</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21859296</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18844221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16834171</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16394472</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15678392</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14740369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.14034458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13442211</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12702401</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12085427</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08291457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08417085</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08375209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07726131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.07236181</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07244556</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07286432</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0741206</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07398102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0758794</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.21105528</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18592965</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17085427</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16143216</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15477387</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.14782245</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13998564</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.13316583</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.12674484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.12060302</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.09798995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.09798995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08207705</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.07726131</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.08090452</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07914573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.08004307</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07914573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07928532</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07939698</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.18592965</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16959799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16666667</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16268844</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.15527638</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1461474</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.13819095</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.12908291</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1239531</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.11733668</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.05778894</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.06532663</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0678392</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08982412</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10050251</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.08710218</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07573582</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07914573</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07593523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07688442</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF_SELF (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>工作表1!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08291457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08668342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08542714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08417085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0758794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07579564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07681263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07726131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07761027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07839196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2136458816"/>
+        <c:axId val="2139595552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2136458816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2139595552"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2139595552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2136458816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="zh-TW"/>
@@ -376,608 +2151,10 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="6"/>
           <c:order val="1"/>
           <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVD (count)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$F$2:$F$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.13567839</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14321608</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14154104</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13756281</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13869347</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13358459</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.12849964</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12782663</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12311558</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11733668</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MF (count)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$G$2:$G$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.03015075</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03266332</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.02763819</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.02324121</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.02110553</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.02386935</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.022972</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02229899</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02233389</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0218593</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$H$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVD (count_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$H$2:$H$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.14070352</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1281407</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.13400335</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.13630653</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13768844</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.13525963</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.13496052</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.12845477</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12255723</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.11582915</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MF (count_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$I$2:$I$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.02261307</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.03643216</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.03936348</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.03454774</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.03417085</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.03224456</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.03086863</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.02920854</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.02819654</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.0281407</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="5"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$J$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVD (popularity_count_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$J$2:$J$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.21859296</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18844221</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16834171</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16394472</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.15678392</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.14740369</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.14034458</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.13442211</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.12702401</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.12085427</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MF (popularity_count_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>MF (libmf)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
@@ -1090,23 +2267,15 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
+          <c:idx val="11"/>
+          <c:order val="2"/>
           <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$L$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>SVD (popularity_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>MF (self)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
@@ -1119,13 +2288,13 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent6">
                   <a:lumMod val="60000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2">
+                  <a:schemeClr val="accent6">
                     <a:lumMod val="60000"/>
                   </a:schemeClr>
                 </a:solidFill>
@@ -1174,163 +2343,39 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$2:$L$11</c:f>
+              <c:f>工作表1!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>0.21105528</c:v>
+                  <c:v>0.08291457</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.18592965</c:v>
+                  <c:v>0.08668342</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.17085427</c:v>
+                  <c:v>0.08542714</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.16143216</c:v>
+                  <c:v>0.08417085</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.15477387</c:v>
+                  <c:v>0.0758794</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.14782245</c:v>
+                  <c:v>0.07579564</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.13998564</c:v>
+                  <c:v>0.07681263</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.13316583</c:v>
+                  <c:v>0.07726131</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.12674484</c:v>
+                  <c:v>0.07761027</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.12060302</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>工作表1!$M$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>MF (popularity_time)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3">
-                    <a:lumMod val="60000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>9.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>10.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>工作表1!$M$2:$M$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
-                <c:pt idx="0">
-                  <c:v>0.09798995</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.09798995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.08207705</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.07726131</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.08090452</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.07914573</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.08004307</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.07914573</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.07928532</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.07939698</c:v>
+                  <c:v>0.07839196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1347,11 +2392,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2009024480"/>
-        <c:axId val="-2007506704"/>
+        <c:axId val="2114073552"/>
+        <c:axId val="2114071056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2009024480"/>
+        <c:axId val="2114073552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1394,7 +2439,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2007506704"/>
+        <c:crossAx val="2114071056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1402,7 +2447,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2007506704"/>
+        <c:axId val="2114071056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1453,7 +2498,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2009024480"/>
+        <c:crossAx val="2114073552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1574,6 +2619,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -2077,20 +3162,523 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>127000</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>31750</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>2451100</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>1689100</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2104,6 +3692,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>990600</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="圖表 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2375,10 +3995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K56" sqref="K56"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,10 +4016,15 @@
     <col min="11" max="11" width="32.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="1"/>
+    <col min="14" max="14" width="20.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="38.6640625" style="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="23" style="6" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="10.83203125" style="6"/>
+    <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -2436,8 +4061,20 @@
       <c r="M1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="N1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="P1" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2447,35 +4084,47 @@
       <c r="D2" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="7">
         <v>5.8000000000000003E-2</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="7">
         <v>0.13567839000000001</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="7">
         <v>3.015075E-2</v>
       </c>
-      <c r="H2" s="6">
+      <c r="H2" s="7">
         <v>0.14070352</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="7">
         <v>2.2613069999999999E-2</v>
       </c>
-      <c r="J2" s="6">
+      <c r="J2" s="7">
         <v>0.21859296</v>
       </c>
-      <c r="K2" s="6">
+      <c r="K2" s="7">
         <v>8.2914570000000007E-2</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="7">
         <v>0.21105528000000001</v>
       </c>
       <c r="M2" s="6">
         <v>9.7989950000000006E-2</v>
       </c>
+      <c r="N2" s="6">
+        <v>0.18592965</v>
+      </c>
+      <c r="O2" s="6">
+        <v>5.7788939999999997E-2</v>
+      </c>
+      <c r="P2" s="6">
+        <v>8.2914570000000007E-2</v>
+      </c>
+      <c r="Q2" s="6">
+        <v>0.14824121000000001</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -2485,37 +4134,47 @@
       <c r="D3" s="1">
         <v>2</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="7">
         <v>6.4000000000000001E-2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="7">
         <v>0.14321608</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="7">
         <v>3.2663320000000003E-2</v>
       </c>
-      <c r="H3" s="6">
+      <c r="H3" s="7">
         <v>0.1281407</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="7">
         <v>3.6432159999999998E-2</v>
       </c>
-      <c r="J3" s="6">
+      <c r="J3" s="7">
         <v>0.18844221</v>
       </c>
-      <c r="K3" s="6">
+      <c r="K3" s="7">
         <v>8.4170850000000005E-2</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="7">
         <v>0.18592965</v>
       </c>
       <c r="M3" s="6">
         <v>9.7989950000000006E-2</v>
       </c>
-      <c r="N3" s="3"/>
-      <c r="O3" s="3"/>
+      <c r="N3" s="6">
+        <v>0.16959799</v>
+      </c>
+      <c r="O3" s="6">
+        <v>6.5326629999999997E-2</v>
+      </c>
+      <c r="P3" s="6">
+        <v>8.6683419999999997E-2</v>
+      </c>
+      <c r="Q3" s="6">
+        <v>0.11055276</v>
+      </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -2525,37 +4184,47 @@
       <c r="D4" s="1">
         <v>3</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>0.14154104000000001</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>2.763819E-2</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="7">
         <v>0.13400334999999999</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>3.9363479999999999E-2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>0.16834171000000001</v>
       </c>
-      <c r="K4" s="6">
+      <c r="K4" s="7">
         <v>8.3752090000000001E-2</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>0.17085427</v>
       </c>
       <c r="M4" s="6">
         <v>8.2077049999999999E-2</v>
       </c>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
+      <c r="N4" s="6">
+        <v>0.16666666999999999</v>
+      </c>
+      <c r="O4" s="6">
+        <v>6.7839200000000002E-2</v>
+      </c>
+      <c r="P4" s="6">
+        <v>8.5427139999999999E-2</v>
+      </c>
+      <c r="Q4" s="6">
+        <v>9.7989950000000006E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -2565,581 +4234,751 @@
       <c r="D5" s="1">
         <v>4</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="7">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>0.13756281000000001</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>2.3241210000000002E-2</v>
       </c>
-      <c r="H5" s="6">
+      <c r="H5" s="7">
         <v>0.13630653000000001</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>3.454774E-2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>0.16394471999999999</v>
       </c>
-      <c r="K5" s="6">
+      <c r="K5" s="7">
         <v>7.726131E-2</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>0.16143215999999999</v>
       </c>
       <c r="M5" s="6">
         <v>7.726131E-2</v>
       </c>
-      <c r="N5" s="3"/>
-      <c r="O5" s="3"/>
+      <c r="N5" s="6">
+        <v>0.16268843999999999</v>
+      </c>
+      <c r="O5" s="6">
+        <v>8.9824119999999993E-2</v>
+      </c>
+      <c r="P5" s="6">
+        <v>8.4170850000000005E-2</v>
+      </c>
+      <c r="Q5" s="6">
+        <v>0.11243719000000001</v>
+      </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D6" s="1">
         <v>5</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>0.13869347000000001</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>2.1105530000000001E-2</v>
       </c>
-      <c r="H6" s="6">
+      <c r="H6" s="7">
         <v>0.13768844</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>3.4170850000000003E-2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>0.15678391999999999</v>
       </c>
-      <c r="K6" s="6">
+      <c r="K6" s="7">
         <v>7.2361809999999999E-2</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <v>0.15477387000000001</v>
       </c>
       <c r="M6" s="6">
         <v>8.0904519999999994E-2</v>
       </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
+      <c r="N6" s="6">
+        <v>0.15527637999999999</v>
+      </c>
+      <c r="O6" s="6">
+        <v>0.10050251</v>
+      </c>
+      <c r="P6" s="6">
+        <v>7.58794E-2</v>
+      </c>
+      <c r="Q6" s="6">
+        <v>0.11105528000000001</v>
+      </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D7" s="1">
         <v>6</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="7">
         <v>0.09</v>
       </c>
-      <c r="F7" s="6">
+      <c r="F7" s="7">
         <v>0.13358459</v>
       </c>
-      <c r="G7" s="6">
+      <c r="G7" s="7">
         <v>2.3869350000000001E-2</v>
       </c>
-      <c r="H7" s="6">
+      <c r="H7" s="7">
         <v>0.13525962999999999</v>
       </c>
-      <c r="I7" s="6">
+      <c r="I7" s="7">
         <v>3.2244559999999999E-2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="7">
         <v>0.14740369</v>
       </c>
-      <c r="K7" s="6">
+      <c r="K7" s="7">
         <v>7.2445560000000006E-2</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="7">
         <v>0.14782244999999999</v>
       </c>
       <c r="M7" s="6">
         <v>7.9145729999999997E-2</v>
       </c>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
+      <c r="N7" s="6">
+        <v>0.14614740000000001</v>
+      </c>
+      <c r="O7" s="6">
+        <v>8.7102180000000001E-2</v>
+      </c>
+      <c r="P7" s="6">
+        <v>7.5795639999999997E-2</v>
+      </c>
+      <c r="Q7" s="6">
+        <v>0.10217755000000001</v>
+      </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D8" s="1">
         <v>7</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
         <v>0.12849964</v>
       </c>
-      <c r="G8" s="6">
+      <c r="G8" s="7">
         <v>2.2971999999999999E-2</v>
       </c>
-      <c r="H8" s="6">
+      <c r="H8" s="7">
         <v>0.13496052</v>
       </c>
-      <c r="I8" s="6">
+      <c r="I8" s="7">
         <v>3.0868630000000001E-2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="7">
         <v>0.14034458</v>
       </c>
-      <c r="K8" s="6">
+      <c r="K8" s="7">
         <v>7.2864319999999996E-2</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="7">
         <v>0.13998563999999999</v>
       </c>
       <c r="M8" s="6">
         <v>8.0043069999999994E-2</v>
       </c>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
+      <c r="N8" s="6">
+        <v>0.13819095000000001</v>
+      </c>
+      <c r="O8" s="6">
+        <v>7.5735819999999995E-2</v>
+      </c>
+      <c r="P8" s="6">
+        <v>7.6812630000000007E-2</v>
+      </c>
+      <c r="Q8" s="6">
+        <v>9.4759510000000005E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D9" s="1">
         <v>8</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="7">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
         <v>0.12782663</v>
       </c>
-      <c r="G9" s="6">
+      <c r="G9" s="7">
         <v>2.2298990000000001E-2</v>
       </c>
-      <c r="H9" s="6">
+      <c r="H9" s="7">
         <v>0.12845477</v>
       </c>
-      <c r="I9" s="6">
+      <c r="I9" s="7">
         <v>2.9208540000000002E-2</v>
       </c>
-      <c r="J9" s="6">
+      <c r="J9" s="7">
         <v>0.13442211000000001</v>
       </c>
-      <c r="K9" s="6">
+      <c r="K9" s="7">
         <v>7.4120599999999995E-2</v>
       </c>
-      <c r="L9" s="6">
+      <c r="L9" s="7">
         <v>0.13316583000000001</v>
       </c>
       <c r="M9" s="6">
         <v>7.9145729999999997E-2</v>
       </c>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
+      <c r="N9" s="6">
+        <v>0.12908291</v>
+      </c>
+      <c r="O9" s="6">
+        <v>7.9145729999999997E-2</v>
+      </c>
+      <c r="P9" s="6">
+        <v>7.726131E-2</v>
+      </c>
+      <c r="Q9" s="6">
+        <v>9.5477389999999995E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D10" s="1">
         <v>9</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
         <v>0.12311558</v>
       </c>
-      <c r="G10" s="6">
+      <c r="G10" s="7">
         <v>2.2333889999999999E-2</v>
       </c>
-      <c r="H10" s="6">
+      <c r="H10" s="7">
         <v>0.12255723</v>
       </c>
-      <c r="I10" s="6">
+      <c r="I10" s="7">
         <v>2.8196539999999999E-2</v>
       </c>
-      <c r="J10" s="6">
+      <c r="J10" s="7">
         <v>0.12702400999999999</v>
       </c>
-      <c r="K10" s="6">
+      <c r="K10" s="7">
         <v>7.3981019999999995E-2</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="7">
         <v>0.12674484</v>
       </c>
       <c r="M10" s="6">
         <v>7.9285320000000006E-2</v>
       </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
+      <c r="N10" s="6">
+        <v>0.1239531</v>
+      </c>
+      <c r="O10" s="6">
+        <v>7.5935230000000006E-2</v>
+      </c>
+      <c r="P10" s="6">
+        <v>7.7610269999999995E-2</v>
+      </c>
+      <c r="Q10" s="6">
+        <v>9.0731430000000002E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D11" s="1">
         <v>10</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
         <v>0.11733668</v>
       </c>
-      <c r="G11" s="6">
+      <c r="G11" s="7">
         <v>2.1859300000000002E-2</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="7">
         <v>0.11582915000000001</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="7">
         <v>2.8140700000000001E-2</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="7">
         <v>0.12085427</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="7">
         <v>7.58794E-2</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="7">
         <v>0.12060302000000001</v>
       </c>
       <c r="M11" s="6">
         <v>7.9396980000000006E-2</v>
       </c>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
+      <c r="N11" s="6">
+        <v>0.11733668</v>
+      </c>
+      <c r="O11" s="6">
+        <v>7.6884419999999995E-2</v>
+      </c>
+      <c r="P11" s="6">
+        <v>7.8391959999999997E-2</v>
+      </c>
+      <c r="Q11" s="6">
+        <v>8.9698490000000006E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
         <v>11</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
         <v>0.11215166999999999</v>
       </c>
-      <c r="G12" s="6">
+      <c r="G12" s="7">
         <v>2.1470989999999999E-2</v>
       </c>
-      <c r="H12" s="6">
+      <c r="H12" s="7">
         <v>0.11078118000000001</v>
       </c>
-      <c r="I12" s="6">
+      <c r="I12" s="7">
         <v>2.695295E-2</v>
       </c>
-      <c r="J12" s="6">
+      <c r="J12" s="7">
         <v>0.11603471999999999</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="7">
         <v>7.8346280000000004E-2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="7">
         <v>0.11466423000000001</v>
       </c>
       <c r="M12" s="6">
         <v>7.8574690000000003E-2</v>
       </c>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
+      <c r="N12" s="6">
+        <v>0.1126085</v>
+      </c>
+      <c r="O12" s="6">
+        <v>7.6975790000000002E-2</v>
+      </c>
+      <c r="P12" s="6">
+        <v>8.108725E-2</v>
+      </c>
+      <c r="Q12" s="6">
+        <v>8.7711280000000003E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D13" s="1">
         <v>12</v>
       </c>
-      <c r="E13" s="6">
+      <c r="E13" s="7">
         <v>7.0999999999999994E-2</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13" s="7">
         <v>0.10845895999999999</v>
       </c>
-      <c r="G13" s="6">
+      <c r="G13" s="7">
         <v>2.0938020000000002E-2</v>
       </c>
-      <c r="H13" s="6">
+      <c r="H13" s="7">
         <v>0.1059464</v>
       </c>
-      <c r="I13" s="6">
+      <c r="I13" s="7">
         <v>2.6800669999999999E-2</v>
       </c>
-      <c r="J13" s="6">
+      <c r="J13" s="7">
         <v>0.10971524000000001</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K13" s="7">
         <v>7.9983250000000006E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L13" s="7">
         <v>0.10929648</v>
       </c>
       <c r="M13" s="6">
         <v>7.7051930000000005E-2</v>
       </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
+      <c r="N13" s="6">
+        <v>0.10678392</v>
+      </c>
+      <c r="O13" s="6">
+        <v>7.5795639999999997E-2</v>
+      </c>
+      <c r="P13" s="6">
+        <v>7.9983250000000006E-2</v>
+      </c>
+      <c r="Q13" s="6">
+        <v>8.5636519999999994E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D14" s="1">
         <v>13</v>
       </c>
-      <c r="E14" s="6">
+      <c r="E14" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="7">
         <v>0.10417472</v>
       </c>
-      <c r="G14" s="6">
+      <c r="G14" s="7">
         <v>2.183997E-2</v>
       </c>
-      <c r="H14" s="6">
+      <c r="H14" s="7">
         <v>0.10108233</v>
       </c>
-      <c r="I14" s="6">
+      <c r="I14" s="7">
         <v>2.6285269999999999E-2</v>
       </c>
-      <c r="J14" s="6">
+      <c r="J14" s="7">
         <v>0.10552764000000001</v>
       </c>
-      <c r="K14" s="6">
+      <c r="K14" s="7">
         <v>7.8855819999999993E-2</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="7">
         <v>0.10378817</v>
       </c>
       <c r="M14" s="6">
         <v>7.5376879999999993E-2</v>
       </c>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="N14" s="6">
+        <v>0.10166216</v>
+      </c>
+      <c r="O14" s="6">
+        <v>7.6923080000000005E-2</v>
+      </c>
+      <c r="P14" s="6">
+        <v>7.9822190000000001E-2</v>
+      </c>
+      <c r="Q14" s="6">
+        <v>8.5233859999999995E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D15" s="1">
         <v>14</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="7">
         <v>7.1999999999999995E-2</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="7">
         <v>9.9784639999999994E-2</v>
       </c>
-      <c r="G15" s="6">
+      <c r="G15" s="7">
         <v>2.1895189999999998E-2</v>
       </c>
-      <c r="H15" s="6">
+      <c r="H15" s="7">
         <v>9.6913139999999995E-2</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="7">
         <v>2.620244E-2</v>
       </c>
-      <c r="J15" s="6">
+      <c r="J15" s="7">
         <v>9.9964109999999995E-2</v>
       </c>
-      <c r="K15" s="6">
+      <c r="K15" s="7">
         <v>7.7351039999999996E-2</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="7">
         <v>9.8528359999999995E-2</v>
       </c>
       <c r="M15" s="6">
         <v>7.2325920000000002E-2</v>
       </c>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
+      <c r="N15" s="6">
+        <v>9.7451540000000003E-2</v>
+      </c>
+      <c r="O15" s="6">
+        <v>7.5556349999999994E-2</v>
+      </c>
+      <c r="P15" s="6">
+        <v>7.9145729999999997E-2</v>
+      </c>
+      <c r="Q15" s="6">
+        <v>8.2735100000000006E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="1">
         <v>15</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="7">
         <v>9.4974870000000003E-2</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="7">
         <v>2.278057E-2</v>
       </c>
-      <c r="H16" s="6">
+      <c r="H16" s="7">
         <v>9.2964820000000004E-2</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="7">
         <v>2.5795640000000002E-2</v>
       </c>
-      <c r="J16" s="6">
+      <c r="J16" s="7">
         <v>9.4807370000000002E-2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="K16" s="7">
         <v>7.5041880000000005E-2</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="7">
         <v>9.2964820000000004E-2</v>
       </c>
       <c r="M16" s="6">
         <v>6.9681740000000006E-2</v>
       </c>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+      <c r="N16" s="6">
+        <v>9.2462310000000006E-2</v>
+      </c>
+      <c r="O16" s="6">
+        <v>7.4874369999999996E-2</v>
+      </c>
+      <c r="P16" s="6">
+        <v>7.7721940000000003E-2</v>
+      </c>
+      <c r="Q16" s="6">
+        <v>7.8559459999999998E-2</v>
+      </c>
     </row>
-    <row r="17" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D17" s="1">
         <v>16</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="7">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="7">
         <v>9.1080400000000006E-2</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="7">
         <v>2.3084170000000001E-2</v>
       </c>
-      <c r="H17" s="6">
+      <c r="H17" s="7">
         <v>8.8724869999999997E-2</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="7">
         <v>2.5125629999999999E-2</v>
       </c>
-      <c r="J17" s="6">
+      <c r="J17" s="7">
         <v>9.0295230000000004E-2</v>
       </c>
-      <c r="K17" s="6">
+      <c r="K17" s="7">
         <v>7.2707289999999994E-2</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="7">
         <v>8.8881909999999995E-2</v>
       </c>
       <c r="M17" s="6">
         <v>6.6896979999999995E-2</v>
       </c>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
+      <c r="N17" s="6">
+        <v>8.7468589999999999E-2</v>
+      </c>
+      <c r="O17" s="6">
+        <v>7.3492459999999996E-2</v>
+      </c>
+      <c r="P17" s="6">
+        <v>7.7575379999999999E-2</v>
+      </c>
+      <c r="Q17" s="6">
+        <v>7.6790200000000003E-2</v>
+      </c>
     </row>
-    <row r="18" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D18" s="1">
         <v>17</v>
       </c>
-      <c r="E18" s="6">
+      <c r="E18" s="7">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18" s="7">
         <v>8.7496309999999994E-2</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="7">
         <v>2.4830029999999999E-2</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="7">
         <v>8.5574929999999994E-2</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="7">
         <v>2.527343E-2</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="7">
         <v>8.6313920000000002E-2</v>
       </c>
-      <c r="K18" s="6">
+      <c r="K18" s="7">
         <v>7.0795150000000001E-2</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="7">
         <v>8.5279339999999995E-2</v>
       </c>
       <c r="M18" s="6">
         <v>6.6361219999999999E-2</v>
       </c>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
+      <c r="N18" s="6">
+        <v>8.3801360000000005E-2</v>
+      </c>
+      <c r="O18" s="6">
+        <v>7.2420929999999994E-2</v>
+      </c>
+      <c r="P18" s="6">
+        <v>7.4785690000000002E-2</v>
+      </c>
+      <c r="Q18" s="6">
+        <v>7.5524679999999997E-2</v>
+      </c>
     </row>
-    <row r="19" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D19" s="1">
         <v>18</v>
       </c>
-      <c r="E19" s="6">
+      <c r="E19" s="7">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19" s="7">
         <v>8.3612510000000001E-2</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="7">
         <v>2.4986040000000001E-2</v>
       </c>
-      <c r="H19" s="6">
+      <c r="H19" s="7">
         <v>8.2635399999999998E-2</v>
       </c>
-      <c r="I19" s="6">
+      <c r="I19" s="7">
         <v>2.4706869999999999E-2</v>
       </c>
-      <c r="J19" s="6">
+      <c r="J19" s="7">
         <v>8.2635399999999998E-2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="K19" s="7">
         <v>6.9374649999999996E-2</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="7">
         <v>8.2077049999999999E-2</v>
       </c>
       <c r="M19" s="6">
         <v>6.5605810000000001E-2</v>
       </c>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
+      <c r="N19" s="6">
+        <v>7.9704079999999997E-2</v>
+      </c>
+      <c r="O19" s="6">
+        <v>7.1189279999999994E-2</v>
+      </c>
+      <c r="P19" s="6">
+        <v>7.3562260000000004E-2</v>
+      </c>
+      <c r="Q19" s="6">
+        <v>7.5516470000000002E-2</v>
+      </c>
     </row>
-    <row r="20" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D20" s="1">
         <v>19</v>
       </c>
-      <c r="E20" s="6">
+      <c r="E20" s="7">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="7">
         <v>8.0798729999999999E-2</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20" s="7">
         <v>2.472891E-2</v>
       </c>
-      <c r="H20" s="6">
+      <c r="H20" s="7">
         <v>7.921185E-2</v>
       </c>
-      <c r="I20" s="6">
+      <c r="I20" s="7">
         <v>2.393547E-2</v>
       </c>
-      <c r="J20" s="6">
+      <c r="J20" s="7">
         <v>7.8947370000000003E-2</v>
       </c>
-      <c r="K20" s="6">
+      <c r="K20" s="7">
         <v>6.7574720000000005E-2</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="7">
         <v>7.855065E-2</v>
       </c>
       <c r="M20" s="6">
         <v>6.5458870000000002E-2</v>
       </c>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
+      <c r="N20" s="6">
+        <v>7.6434810000000006E-2</v>
+      </c>
+      <c r="O20" s="6">
+        <v>6.9558320000000007E-2</v>
+      </c>
+      <c r="P20" s="6">
+        <v>7.1938639999999998E-2</v>
+      </c>
+      <c r="Q20" s="6">
+        <v>7.4980160000000004E-2</v>
+      </c>
     </row>
-    <row r="21" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
       <c r="D21" s="1">
         <v>20</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="7">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="7">
         <v>7.8140699999999993E-2</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21" s="7">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H21" s="6">
+      <c r="H21" s="7">
         <v>7.6130649999999994E-2</v>
       </c>
-      <c r="I21" s="6">
+      <c r="I21" s="7">
         <v>2.3743719999999999E-2</v>
       </c>
-      <c r="J21" s="6">
+      <c r="J21" s="7">
         <v>7.6005030000000001E-2</v>
       </c>
-      <c r="K21" s="6">
+      <c r="K21" s="7">
         <v>6.6206029999999999E-2</v>
       </c>
-      <c r="L21" s="6">
+      <c r="L21" s="7">
         <v>7.6130649999999994E-2</v>
       </c>
       <c r="M21" s="6">
         <v>6.5075380000000002E-2</v>
       </c>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
+      <c r="N21" s="6">
+        <v>7.3366829999999994E-2</v>
+      </c>
+      <c r="O21" s="6">
+        <v>6.9221110000000002E-2</v>
+      </c>
+      <c r="P21" s="6">
+        <v>6.9849250000000002E-2</v>
+      </c>
+      <c r="Q21" s="6">
+        <v>7.5502509999999995E-2</v>
+      </c>
     </row>
-    <row r="22" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -3150,9 +4989,8 @@
       <c r="L22" s="3"/>
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
     </row>
-    <row r="23" spans="4:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="J23" s="3"/>
@@ -3160,7 +4998,6 @@
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
       <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/evalution.xlsx
+++ b/evalution.xlsx
@@ -5,16 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtk07866/code/baeir/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtk07866/Dropbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24880" windowHeight="15540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
+    <sheet name="old" sheetId="1" r:id="rId1"/>
+    <sheet name="new" sheetId="5" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>Users</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,18 +114,85 @@
     <t>MF_SELF (explicit)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>window</t>
+  </si>
+  <si>
+    <t>TOPK</t>
+  </si>
+  <si>
+    <t>Popularity</t>
+  </si>
+  <si>
+    <t>SVD (count)</t>
+  </si>
+  <si>
+    <t>MF (count)</t>
+  </si>
+  <si>
+    <t>SVD (count_time)</t>
+  </si>
+  <si>
+    <t>MF (count_time)</t>
+  </si>
+  <si>
+    <t>SVD (popularity_count_time)</t>
+  </si>
+  <si>
+    <t>MF (popularity_count_time)</t>
+  </si>
+  <si>
+    <t>SVD (popularity_time)</t>
+  </si>
+  <si>
+    <t>MF (popularity_time)</t>
+  </si>
+  <si>
+    <t>SVD (popularity)</t>
+  </si>
+  <si>
+    <t>MF (popularity)</t>
+  </si>
+  <si>
+    <t>MF_SELF (popularity_count_time)</t>
+  </si>
+  <si>
+    <t>MF_SELF (explicit)</t>
+  </si>
+  <si>
+    <t>Users</t>
+  </si>
+  <si>
+    <t>Tweets</t>
+  </si>
+  <si>
+    <t>validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10-fold </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 week </t>
+  </si>
+  <si>
+    <t>SVD (boolean)</t>
+  </si>
+  <si>
+    <t>MF (boolean)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="176" formatCode="#,##0.000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0_ "/>
     <numFmt numFmtId="178" formatCode="0.000_);[Red]\(0.000\)"/>
     <numFmt numFmtId="179" formatCode="#,##0.000_);[Red]\(#,##0.000\)"/>
+    <numFmt numFmtId="180" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -163,6 +231,12 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -190,7 +264,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -205,6 +279,8 @@
     </xf>
     <xf numFmtId="178" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -220,6 +296,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -309,7 +388,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$1</c:f>
+              <c:f>old!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -344,7 +423,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -383,7 +462,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$11</c:f>
+              <c:f>old!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -427,7 +506,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$F$1</c:f>
+              <c:f>old!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -462,7 +541,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -501,7 +580,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$F$2:$F$11</c:f>
+              <c:f>old!$F$2:$F$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -545,7 +624,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$G$1</c:f>
+              <c:f>old!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -580,7 +659,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -619,7 +698,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$G$2:$G$11</c:f>
+              <c:f>old!$G$2:$G$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -663,7 +742,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$H$1</c:f>
+              <c:f>old!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -698,7 +777,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -737,7 +816,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$H$2:$H$11</c:f>
+              <c:f>old!$H$2:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -781,7 +860,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$I$1</c:f>
+              <c:f>old!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -816,7 +895,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -855,7 +934,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$I$2:$I$11</c:f>
+              <c:f>old!$I$2:$I$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -899,7 +978,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$J$1</c:f>
+              <c:f>old!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -934,7 +1013,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -973,7 +1052,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$J$2:$J$11</c:f>
+              <c:f>old!$J$2:$J$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1017,7 +1096,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$K$1</c:f>
+              <c:f>old!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1058,7 +1137,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1097,7 +1176,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$K$2:$K$11</c:f>
+              <c:f>old!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1141,7 +1220,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$L$1</c:f>
+              <c:f>old!$L$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1182,7 +1261,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1221,7 +1300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$L$2:$L$11</c:f>
+              <c:f>old!$L$2:$L$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1265,7 +1344,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$M$1</c:f>
+              <c:f>old!$M$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1306,7 +1385,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1345,7 +1424,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$M$2:$M$11</c:f>
+              <c:f>old!$M$2:$M$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1389,7 +1468,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$N$1</c:f>
+              <c:f>old!$N$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1430,7 +1509,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1469,7 +1548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$N$2:$N$11</c:f>
+              <c:f>old!$N$2:$N$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1513,7 +1592,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$O$1</c:f>
+              <c:f>old!$O$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1554,7 +1633,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1593,7 +1672,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$O$2:$O$11</c:f>
+              <c:f>old!$O$2:$O$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1637,7 +1716,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$P$1</c:f>
+              <c:f>old!$P$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1678,7 +1757,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1717,7 +1796,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$P$2:$P$11</c:f>
+              <c:f>old!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -1750,6 +1829,133 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.07839196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>old!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF_SELF (explicit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>old!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>old!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14824121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11055276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09798995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11243719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11105528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10217755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09475951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09547739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09073143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08969849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1766,11 +1972,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2136458816"/>
-        <c:axId val="2139595552"/>
+        <c:axId val="2130291424"/>
+        <c:axId val="2130294560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2136458816"/>
+        <c:axId val="2130291424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1813,7 +2019,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2139595552"/>
+        <c:crossAx val="2130294560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1821,7 +2027,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2139595552"/>
+        <c:axId val="2130294560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1872,7 +2078,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2136458816"/>
+        <c:crossAx val="2130291424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1996,7 +2202,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2037,7 +2242,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>工作表1!$E$1</c:f>
+              <c:f>old!$E$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2072,7 +2277,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2111,7 +2316,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$E$2:$E$11</c:f>
+              <c:f>old!$E$2:$E$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2188,7 +2393,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2227,7 +2432,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$K$2:$K$11</c:f>
+              <c:f>old!$K$2:$K$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2304,7 +2509,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>工作表1!$D$2:$D$11</c:f>
+              <c:f>old!$D$2:$D$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2343,7 +2548,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>工作表1!$P$2:$P$11</c:f>
+              <c:f>old!$P$2:$P$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2392,11 +2597,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2114073552"/>
-        <c:axId val="2114071056"/>
+        <c:axId val="2125302768"/>
+        <c:axId val="2125315696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2114073552"/>
+        <c:axId val="2125302768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2439,7 +2644,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114071056"/>
+        <c:crossAx val="2125315696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2447,7 +2652,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2114071056"/>
+        <c:axId val="2125315696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2498,7 +2703,7 @@
             <a:endParaRPr lang="zh-TW"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2114073552"/>
+        <c:crossAx val="2125302768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2512,7 +2717,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2549,6 +2753,2231 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Precesion</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW" baseline="0"/>
+              <a:t> @ topK</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>old!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>old!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>old!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.058</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.064</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.065</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.092</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.09</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.079</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.071</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.072</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MF (without explicit)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>old!$D$2:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>old!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.08291457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.08668342</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.08542714</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.08417085</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0758794</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.07579564</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.07681263</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.07726131</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.07761027</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.07839196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>MF (with explicit)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>old!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.14824121</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11055276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.09798995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.11243719</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.11105528</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10217755</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.09475951</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.09547739</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.09073143</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.08969849</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2130398160"/>
+        <c:axId val="2130401440"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2130398160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130401440"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2130401440"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2130398160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>PRECISION @ top K</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Popularity</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$E$2:$E$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0453948023095103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0459969701108757</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0487376674929295</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0766172173137067</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0504175375789668</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0779835950412815</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0518761601708865</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0576011847151161</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0549942150431337</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0583148788297949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (boolean)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$F$2:$F$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0914025231617728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.101795823534872</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0971083956679525</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0954872220441362</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.100423064943979</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0887472726554246</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0864131107079793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0840228391925707</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0847295444572034</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0816597036154291</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (boolean)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$G$2:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0393799112810184</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0441008567298653</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0417644016169635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.037289902740329</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0338880591686552</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0381730475279194</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0358868680624576</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0358750655958209</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.032820971827548</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0345384292310807</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (count)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$H$2:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.117223818217969</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.125158304558041</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.12397749783587</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120326495879495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.122631557242284</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.114058289297647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.113332425130574</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.115577169305124</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.109614538582523</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0982357929924584</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (count)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$I$2:$I$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0620049967781133</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0562934545208902</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0528910303747322</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0531255796215603</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0462478283649759</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0477635713739164</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0533222250543249</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0503976378459301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0500618338026512</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0484145864258771</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="plus"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$J$2:$J$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.126917441037065</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10705484174956</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.117190056912228</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.120998139795244</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.121593378103584</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.121427536405375</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121451572368342</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.108976605705693</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.103746291081415</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.0941219115299012</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dot"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$K$2:$K$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0461879023955995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0641353863651707</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0693119318155084</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0626006081398388</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0605455024168568</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.0553341654564922</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.055736419529678</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0582655094881175</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0572296274962068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.057444639394583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="dash"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$L$2:$L$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.201257338752147</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.167955288778545</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.149794534088229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.147199504943574</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.137391850285618</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.125731850554388</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.118448286267939</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.116693440621426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.110190805581849</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.107943954451987</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$M$2:$M$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.112489959156545</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.110546561062121</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.106695146330553</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.102377795965993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0988562500846052</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100528542817515</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.102847261628833</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0995864742379082</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.102082427492796</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104412404571549</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$N$2:$N$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.198458512918115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17028852599434</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.158545246894946</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.149010185566812</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1391891668784</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.133997515600647</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125435769806517</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.120136039620197</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.111442216026947</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.106688427149882</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="triangle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$O$2:$O$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.122584403812668</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.120413331080011</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.10748097696689</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.106310073651786</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.102942182816742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10351942350116</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107696395826082</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.103191275943733</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.111022087180813</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.106979420876812</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVD (popularity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$P$2:$P$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.17592666294792</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.155918860964324</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.156494880356146</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.151973360523509</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.141869869320634</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.127484461048803</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.121767231142429</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.114770010052933</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.113994413238555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.108131651681479</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF (popularity)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="star"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$Q$2:$Q$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.0875906758358691</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.0966441978587022</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.0926306038404629</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.117162485897476</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.130984309687529</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.116422920901257</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0996786044491794</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.105083692982243</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0997662358449478</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.107324195903181</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF_SELF (popularity_count_time)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$R$2:$R$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.105960228328646</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.116573629959615</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.116222297135062</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.107806090381739</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.10616476709063</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.100306960989927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.107878176633062</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.10761522348052</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.108495482348676</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.104877485998268</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>new!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MF_SELF (explicit)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3">
+                    <a:lumMod val="80000"/>
+                    <a:lumOff val="20000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>new!$S$2:$S$11</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000_ </c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.174575611763585</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.133042183288186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.129716300252276</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.144323244709755</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.140712839168373</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.126688635555736</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.122255130706476</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.11882483514014</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.115123951077207</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.118157723917598</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2128521936"/>
+        <c:axId val="2128527904"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2128521936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>K</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128527904"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2128527904"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-TW"/>
+                  <a:t>precision</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-TW"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0000_ " sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2128521936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="lt1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -2659,6 +5088,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
@@ -3661,6 +6170,1030 @@
         <a:noFill/>
       </a:ln>
     </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200" cap="all"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="800" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="50000"/>
+        <a:lumOff val="50000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" cap="all" spc="120" normalizeH="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="800" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -3724,6 +7257,75 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1409700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="圖表 4"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>280390</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>95662</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>22003</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>138313</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="圖表 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3997,11 +7599,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="18.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -4024,7 +7626,7 @@
     <col min="21" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>6</v>
       </c>
@@ -4074,7 +7676,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4124,7 +7726,7 @@
         <v>0.14824121000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -4174,7 +7776,7 @@
         <v>0.11055276</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -4224,7 +7826,7 @@
         <v>9.7989950000000006E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -4274,7 +7876,7 @@
         <v>0.11243719000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D6" s="1">
         <v>5</v>
       </c>
@@ -4318,7 +7920,7 @@
         <v>0.11105528000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D7" s="1">
         <v>6</v>
       </c>
@@ -4362,7 +7964,7 @@
         <v>0.10217755000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D8" s="1">
         <v>7</v>
       </c>
@@ -4406,7 +8008,7 @@
         <v>9.4759510000000005E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D9" s="1">
         <v>8</v>
       </c>
@@ -4450,7 +8052,7 @@
         <v>9.5477389999999995E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D10" s="1">
         <v>9</v>
       </c>
@@ -4494,7 +8096,7 @@
         <v>9.0731430000000002E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D11" s="1">
         <v>10</v>
       </c>
@@ -4538,7 +8140,7 @@
         <v>8.9698490000000006E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D12" s="1">
         <v>11</v>
       </c>
@@ -4582,7 +8184,7 @@
         <v>8.7711280000000003E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D13" s="1">
         <v>12</v>
       </c>
@@ -4626,7 +8228,7 @@
         <v>8.5636519999999994E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D14" s="1">
         <v>13</v>
       </c>
@@ -4670,7 +8272,7 @@
         <v>8.5233859999999995E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D15" s="1">
         <v>14</v>
       </c>
@@ -4714,7 +8316,7 @@
         <v>8.2735100000000006E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="1">
         <v>15</v>
       </c>
@@ -4758,7 +8360,7 @@
         <v>7.8559459999999998E-2</v>
       </c>
     </row>
-    <row r="17" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D17" s="1">
         <v>16</v>
       </c>
@@ -4802,7 +8404,7 @@
         <v>7.6790200000000003E-2</v>
       </c>
     </row>
-    <row r="18" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D18" s="1">
         <v>17</v>
       </c>
@@ -4846,7 +8448,7 @@
         <v>7.5524679999999997E-2</v>
       </c>
     </row>
-    <row r="19" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D19" s="1">
         <v>18</v>
       </c>
@@ -4890,7 +8492,7 @@
         <v>7.5516470000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D20" s="1">
         <v>19</v>
       </c>
@@ -4934,7 +8536,7 @@
         <v>7.4980160000000004E-2</v>
       </c>
     </row>
-    <row r="21" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D21" s="1">
         <v>20</v>
       </c>
@@ -4978,7 +8580,7 @@
         <v>7.5502509999999995E-2</v>
       </c>
     </row>
-    <row r="22" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:17" x14ac:dyDescent="0.25">
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="3"/>
@@ -4990,7 +8592,7 @@
       <c r="M22" s="3"/>
       <c r="N22" s="3"/>
     </row>
-    <row r="23" spans="4:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:17" x14ac:dyDescent="0.25">
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="J23" s="3"/>
@@ -5005,4 +8607,1154 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:S21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" zoomScalePageLayoutView="77" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="19" width="9" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="8">
+        <v>1194</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="E2" s="9">
+        <v>4.5394802309510318E-2</v>
+      </c>
+      <c r="F2" s="9">
+        <v>9.1402523161772831E-2</v>
+      </c>
+      <c r="G2" s="9">
+        <v>3.9379911281018372E-2</v>
+      </c>
+      <c r="H2" s="9">
+        <v>0.11722381821796861</v>
+      </c>
+      <c r="I2" s="9">
+        <v>6.2004996778113344E-2</v>
+      </c>
+      <c r="J2" s="9">
+        <v>0.12691744103706526</v>
+      </c>
+      <c r="K2" s="9">
+        <v>4.6187902395599466E-2</v>
+      </c>
+      <c r="L2" s="9">
+        <v>0.2012573387521473</v>
+      </c>
+      <c r="M2" s="9">
+        <v>0.11248995915654532</v>
+      </c>
+      <c r="N2" s="9">
+        <v>0.19845851291811495</v>
+      </c>
+      <c r="O2" s="9">
+        <v>0.12258440381266823</v>
+      </c>
+      <c r="P2" s="9">
+        <v>0.17592666294792036</v>
+      </c>
+      <c r="Q2" s="9">
+        <v>8.7590675835869131E-2</v>
+      </c>
+      <c r="R2" s="9">
+        <v>0.10596022832864577</v>
+      </c>
+      <c r="S2" s="9">
+        <v>0.17457561176358466</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="8">
+        <v>1806102</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>2</v>
+      </c>
+      <c r="E3" s="9">
+        <v>4.5996970110875703E-2</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0.10179582353487204</v>
+      </c>
+      <c r="G3" s="9">
+        <v>4.4100856729865287E-2</v>
+      </c>
+      <c r="H3" s="9">
+        <v>0.12515830455804122</v>
+      </c>
+      <c r="I3" s="9">
+        <v>5.6293454520890164E-2</v>
+      </c>
+      <c r="J3" s="9">
+        <v>0.10705484174956</v>
+      </c>
+      <c r="K3" s="9">
+        <v>6.4135386365170743E-2</v>
+      </c>
+      <c r="L3" s="9">
+        <v>0.16795528877854488</v>
+      </c>
+      <c r="M3" s="9">
+        <v>0.11054656106212116</v>
+      </c>
+      <c r="N3" s="9">
+        <v>0.17028852599434016</v>
+      </c>
+      <c r="O3" s="9">
+        <v>0.12041333108001147</v>
+      </c>
+      <c r="P3" s="9">
+        <v>0.15591886096432378</v>
+      </c>
+      <c r="Q3" s="9">
+        <v>9.6644197858702249E-2</v>
+      </c>
+      <c r="R3" s="9">
+        <v>0.11657362995961519</v>
+      </c>
+      <c r="S3" s="9">
+        <v>0.13304218328818632</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>3</v>
+      </c>
+      <c r="E4" s="9">
+        <v>4.8737667492929473E-2</v>
+      </c>
+      <c r="F4" s="9">
+        <v>9.7108395667952485E-2</v>
+      </c>
+      <c r="G4" s="9">
+        <v>4.1764401616963556E-2</v>
+      </c>
+      <c r="H4" s="9">
+        <v>0.12397749783587042</v>
+      </c>
+      <c r="I4" s="9">
+        <v>5.2891030374732181E-2</v>
+      </c>
+      <c r="J4" s="9">
+        <v>0.11719005691222759</v>
+      </c>
+      <c r="K4" s="9">
+        <v>6.931193181550839E-2</v>
+      </c>
+      <c r="L4" s="9">
+        <v>0.14979453408822871</v>
+      </c>
+      <c r="M4" s="9">
+        <v>0.10669514633055305</v>
+      </c>
+      <c r="N4" s="9">
+        <v>0.15854524689494626</v>
+      </c>
+      <c r="O4" s="9">
+        <v>0.1074809769668897</v>
+      </c>
+      <c r="P4" s="9">
+        <v>0.15649488035614562</v>
+      </c>
+      <c r="Q4" s="9">
+        <v>9.2630603840462913E-2</v>
+      </c>
+      <c r="R4" s="9">
+        <v>0.11622229713506188</v>
+      </c>
+      <c r="S4" s="9">
+        <v>0.1297163002522756</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="8"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>4</v>
+      </c>
+      <c r="E5" s="9">
+        <v>7.6617217313706742E-2</v>
+      </c>
+      <c r="F5" s="9">
+        <v>9.5487222044136261E-2</v>
+      </c>
+      <c r="G5" s="9">
+        <v>3.7289902740329034E-2</v>
+      </c>
+      <c r="H5" s="9">
+        <v>0.1203264958794954</v>
+      </c>
+      <c r="I5" s="9">
+        <v>5.3125579621560344E-2</v>
+      </c>
+      <c r="J5" s="9">
+        <v>0.12099813979524396</v>
+      </c>
+      <c r="K5" s="9">
+        <v>6.2600608139838795E-2</v>
+      </c>
+      <c r="L5" s="9">
+        <v>0.14719950494357373</v>
+      </c>
+      <c r="M5" s="9">
+        <v>0.10237779596599289</v>
+      </c>
+      <c r="N5" s="9">
+        <v>0.14901018556681192</v>
+      </c>
+      <c r="O5" s="9">
+        <v>0.10631007365178619</v>
+      </c>
+      <c r="P5" s="9">
+        <v>0.15197336052350874</v>
+      </c>
+      <c r="Q5" s="9">
+        <v>0.1171624858974764</v>
+      </c>
+      <c r="R5" s="9">
+        <v>0.10780609038173909</v>
+      </c>
+      <c r="S5" s="9">
+        <v>0.14432324470975463</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>5</v>
+      </c>
+      <c r="E6" s="9">
+        <v>5.0417537578966852E-2</v>
+      </c>
+      <c r="F6" s="9">
+        <v>0.10042306494397932</v>
+      </c>
+      <c r="G6" s="9">
+        <v>3.3888059168655234E-2</v>
+      </c>
+      <c r="H6" s="9">
+        <v>0.12263155724228378</v>
+      </c>
+      <c r="I6" s="9">
+        <v>4.6247828364975936E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>0.12159337810358442</v>
+      </c>
+      <c r="K6" s="9">
+        <v>6.0545502416856835E-2</v>
+      </c>
+      <c r="L6" s="9">
+        <v>0.13739185028561798</v>
+      </c>
+      <c r="M6" s="9">
+        <v>9.8856250084605218E-2</v>
+      </c>
+      <c r="N6" s="9">
+        <v>0.13918916687839963</v>
+      </c>
+      <c r="O6" s="9">
+        <v>0.10294218281674207</v>
+      </c>
+      <c r="P6" s="9">
+        <v>0.14186986932063381</v>
+      </c>
+      <c r="Q6" s="9">
+        <v>0.13098430968752944</v>
+      </c>
+      <c r="R6" s="9">
+        <v>0.10616476709062966</v>
+      </c>
+      <c r="S6" s="9">
+        <v>0.1407128391683726</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8">
+        <v>6</v>
+      </c>
+      <c r="E7" s="9">
+        <v>7.7983595041281481E-2</v>
+      </c>
+      <c r="F7" s="9">
+        <v>8.8747272655424647E-2</v>
+      </c>
+      <c r="G7" s="9">
+        <v>3.8173047527919418E-2</v>
+      </c>
+      <c r="H7" s="9">
+        <v>0.11405828929764725</v>
+      </c>
+      <c r="I7" s="9">
+        <v>4.7763571373916361E-2</v>
+      </c>
+      <c r="J7" s="9">
+        <v>0.12142753640537525</v>
+      </c>
+      <c r="K7" s="9">
+        <v>5.5334165456492224E-2</v>
+      </c>
+      <c r="L7" s="9">
+        <v>0.12573185055438788</v>
+      </c>
+      <c r="M7" s="9">
+        <v>0.10052854281751508</v>
+      </c>
+      <c r="N7" s="9">
+        <v>0.13399751560064693</v>
+      </c>
+      <c r="O7" s="9">
+        <v>0.10351942350115997</v>
+      </c>
+      <c r="P7" s="9">
+        <v>0.12748446104880318</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>0.11642292090125703</v>
+      </c>
+      <c r="R7" s="9">
+        <v>0.10030696098992684</v>
+      </c>
+      <c r="S7" s="9">
+        <v>0.12668863555573648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="8"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>7</v>
+      </c>
+      <c r="E8" s="9">
+        <v>5.1876160170886462E-2</v>
+      </c>
+      <c r="F8" s="9">
+        <v>8.6413110707979315E-2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>3.5886868062457639E-2</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.11333242513057422</v>
+      </c>
+      <c r="I8" s="9">
+        <v>5.3322225054324934E-2</v>
+      </c>
+      <c r="J8" s="9">
+        <v>0.12145157236834228</v>
+      </c>
+      <c r="K8" s="9">
+        <v>5.5736419529677977E-2</v>
+      </c>
+      <c r="L8" s="9">
+        <v>0.11844828626793936</v>
+      </c>
+      <c r="M8" s="9">
+        <v>0.10284726162883301</v>
+      </c>
+      <c r="N8" s="9">
+        <v>0.12543576980651722</v>
+      </c>
+      <c r="O8" s="9">
+        <v>0.10769639582608161</v>
+      </c>
+      <c r="P8" s="9">
+        <v>0.12176723114242906</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>9.9678604449179448E-2</v>
+      </c>
+      <c r="R8" s="9">
+        <v>0.10787817663306193</v>
+      </c>
+      <c r="S8" s="9">
+        <v>0.12225513070647651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="8"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9">
+        <v>5.760118471511607E-2</v>
+      </c>
+      <c r="F9" s="9">
+        <v>8.4022839192570739E-2</v>
+      </c>
+      <c r="G9" s="9">
+        <v>3.5875065595820863E-2</v>
+      </c>
+      <c r="H9" s="9">
+        <v>0.11557716930512396</v>
+      </c>
+      <c r="I9" s="9">
+        <v>5.0397637845930085E-2</v>
+      </c>
+      <c r="J9" s="9">
+        <v>0.10897660570569338</v>
+      </c>
+      <c r="K9" s="9">
+        <v>5.8265509488117539E-2</v>
+      </c>
+      <c r="L9" s="9">
+        <v>0.11669344062142568</v>
+      </c>
+      <c r="M9" s="9">
+        <v>9.9586474237908257E-2</v>
+      </c>
+      <c r="N9" s="9">
+        <v>0.12013603962019676</v>
+      </c>
+      <c r="O9" s="9">
+        <v>0.10319127594373341</v>
+      </c>
+      <c r="P9" s="9">
+        <v>0.11477001005293348</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>0.10508369298224322</v>
+      </c>
+      <c r="R9" s="9">
+        <v>0.10761522348051993</v>
+      </c>
+      <c r="S9" s="9">
+        <v>0.11882483514014043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="8"/>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8">
+        <v>9</v>
+      </c>
+      <c r="E10" s="9">
+        <v>5.4994215043133676E-2</v>
+      </c>
+      <c r="F10" s="9">
+        <v>8.4729544457203376E-2</v>
+      </c>
+      <c r="G10" s="9">
+        <v>3.2820971827547958E-2</v>
+      </c>
+      <c r="H10" s="9">
+        <v>0.10961453858252276</v>
+      </c>
+      <c r="I10" s="9">
+        <v>5.0061833802651182E-2</v>
+      </c>
+      <c r="J10" s="9">
+        <v>0.10374629108141502</v>
+      </c>
+      <c r="K10" s="9">
+        <v>5.7229627496206775E-2</v>
+      </c>
+      <c r="L10" s="9">
+        <v>0.11019080558184943</v>
+      </c>
+      <c r="M10" s="9">
+        <v>0.10208242749279582</v>
+      </c>
+      <c r="N10" s="9">
+        <v>0.11144221602694709</v>
+      </c>
+      <c r="O10" s="9">
+        <v>0.11102208718081252</v>
+      </c>
+      <c r="P10" s="9">
+        <v>0.11399441323855461</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>9.9766235844947815E-2</v>
+      </c>
+      <c r="R10" s="9">
+        <v>0.10849548234867562</v>
+      </c>
+      <c r="S10" s="9">
+        <v>0.11512395107720655</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>10</v>
+      </c>
+      <c r="E11" s="9">
+        <v>5.8314878829794865E-2</v>
+      </c>
+      <c r="F11" s="9">
+        <v>8.1659703615429152E-2</v>
+      </c>
+      <c r="G11" s="9">
+        <v>3.453842923108074E-2</v>
+      </c>
+      <c r="H11" s="9">
+        <v>9.8235792992458396E-2</v>
+      </c>
+      <c r="I11" s="9">
+        <v>4.8414586425877155E-2</v>
+      </c>
+      <c r="J11" s="9">
+        <v>9.4121911529901237E-2</v>
+      </c>
+      <c r="K11" s="9">
+        <v>5.7444639394583039E-2</v>
+      </c>
+      <c r="L11" s="9">
+        <v>0.10794395445198735</v>
+      </c>
+      <c r="M11" s="9">
+        <v>0.10441240457154877</v>
+      </c>
+      <c r="N11" s="9">
+        <v>0.10668842714988179</v>
+      </c>
+      <c r="O11" s="9">
+        <v>0.10697942087681156</v>
+      </c>
+      <c r="P11" s="9">
+        <v>0.10813165168147884</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>0.10732419590318096</v>
+      </c>
+      <c r="R11" s="9">
+        <v>0.10487748599826784</v>
+      </c>
+      <c r="S11" s="9">
+        <v>0.11815772391759811</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="8"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8">
+        <v>11</v>
+      </c>
+      <c r="E12" s="9">
+        <v>5.4697910546864549E-2</v>
+      </c>
+      <c r="F12" s="9">
+        <v>6.9086718031183769E-2</v>
+      </c>
+      <c r="G12" s="9">
+        <v>3.7248974867121171E-2</v>
+      </c>
+      <c r="H12" s="9">
+        <v>9.767695162349975E-2</v>
+      </c>
+      <c r="I12" s="9">
+        <v>4.4797637791436522E-2</v>
+      </c>
+      <c r="J12" s="9">
+        <v>8.9676985832321796E-2</v>
+      </c>
+      <c r="K12" s="9">
+        <v>5.8784391522230209E-2</v>
+      </c>
+      <c r="L12" s="9">
+        <v>9.8226640075448984E-2</v>
+      </c>
+      <c r="M12" s="9">
+        <v>0.10613702543082409</v>
+      </c>
+      <c r="N12" s="9">
+        <v>0.10486907976141949</v>
+      </c>
+      <c r="O12" s="9">
+        <v>0.11027011250065025</v>
+      </c>
+      <c r="P12" s="9">
+        <v>0.10018019261821448</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>0.10760369888988272</v>
+      </c>
+      <c r="R12" s="9">
+        <v>0.10724151851538775</v>
+      </c>
+      <c r="S12" s="9">
+        <v>0.11445691338744653</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="8"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="8">
+        <v>12</v>
+      </c>
+      <c r="E13" s="9">
+        <v>5.2923247456530521E-2</v>
+      </c>
+      <c r="F13" s="9">
+        <v>6.4353842435442746E-2</v>
+      </c>
+      <c r="G13" s="9">
+        <v>3.5243814621428046E-2</v>
+      </c>
+      <c r="H13" s="9">
+        <v>8.7173827185746483E-2</v>
+      </c>
+      <c r="I13" s="9">
+        <v>4.7383425059574318E-2</v>
+      </c>
+      <c r="J13" s="9">
+        <v>9.1923160109755889E-2</v>
+      </c>
+      <c r="K13" s="9">
+        <v>5.4277639595062918E-2</v>
+      </c>
+      <c r="L13" s="9">
+        <v>9.6195037571815717E-2</v>
+      </c>
+      <c r="M13" s="9">
+        <v>0.10563168722639783</v>
+      </c>
+      <c r="N13" s="9">
+        <v>9.3132840744498777E-2</v>
+      </c>
+      <c r="O13" s="9">
+        <v>0.10836481943792589</v>
+      </c>
+      <c r="P13" s="9">
+        <v>9.2839995020061572E-2</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>0.10312954990948625</v>
+      </c>
+      <c r="R13" s="9">
+        <v>0.1046565019966695</v>
+      </c>
+      <c r="S13" s="9">
+        <v>0.10971184911815646</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>13</v>
+      </c>
+      <c r="E14" s="9">
+        <v>5.6360436203336237E-2</v>
+      </c>
+      <c r="F14" s="9">
+        <v>6.2235887535907614E-2</v>
+      </c>
+      <c r="G14" s="9">
+        <v>3.9922231985519335E-2</v>
+      </c>
+      <c r="H14" s="9">
+        <v>8.9386010950671779E-2</v>
+      </c>
+      <c r="I14" s="9">
+        <v>4.7105783757547023E-2</v>
+      </c>
+      <c r="J14" s="9">
+        <v>8.4413715252313365E-2</v>
+      </c>
+      <c r="K14" s="9">
+        <v>4.8938844089262322E-2</v>
+      </c>
+      <c r="L14" s="9">
+        <v>8.5367874098730728E-2</v>
+      </c>
+      <c r="M14" s="9">
+        <v>0.10654811989214058</v>
+      </c>
+      <c r="N14" s="9">
+        <v>8.8812019746461496E-2</v>
+      </c>
+      <c r="O14" s="9">
+        <v>0.10474603521091358</v>
+      </c>
+      <c r="P14" s="9">
+        <v>8.8124899885473423E-2</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>0.10232017284297586</v>
+      </c>
+      <c r="R14" s="9">
+        <v>0.1044643409229719</v>
+      </c>
+      <c r="S14" s="9">
+        <v>0.1094610528419373</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="8"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>14</v>
+      </c>
+      <c r="E15" s="9">
+        <v>5.2133001986066393E-2</v>
+      </c>
+      <c r="F15" s="9">
+        <v>6.0321477707601538E-2</v>
+      </c>
+      <c r="G15" s="9">
+        <v>3.3064942185250447E-2</v>
+      </c>
+      <c r="H15" s="9">
+        <v>8.0982209178760103E-2</v>
+      </c>
+      <c r="I15" s="9">
+        <v>4.8234073047620049E-2</v>
+      </c>
+      <c r="J15" s="9">
+        <v>7.9855973230958305E-2</v>
+      </c>
+      <c r="K15" s="9">
+        <v>5.3431529653331089E-2</v>
+      </c>
+      <c r="L15" s="9">
+        <v>7.8460858937139111E-2</v>
+      </c>
+      <c r="M15" s="9">
+        <v>0.10483636099677143</v>
+      </c>
+      <c r="N15" s="9">
+        <v>8.8072505706807178E-2</v>
+      </c>
+      <c r="O15" s="9">
+        <v>9.55575286453587E-2</v>
+      </c>
+      <c r="P15" s="9">
+        <v>8.5768113396733958E-2</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>0.10118347145717192</v>
+      </c>
+      <c r="R15" s="9">
+        <v>0.10267376067464956</v>
+      </c>
+      <c r="S15" s="9">
+        <v>0.10937074866886824</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>15</v>
+      </c>
+      <c r="E16" s="9">
+        <v>5.163534988751857E-2</v>
+      </c>
+      <c r="F16" s="9">
+        <v>5.4199785971080917E-2</v>
+      </c>
+      <c r="G16" s="9">
+        <v>3.7162923420530083E-2</v>
+      </c>
+      <c r="H16" s="9">
+        <v>7.9324995826785635E-2</v>
+      </c>
+      <c r="I16" s="9">
+        <v>5.0911487232831815E-2</v>
+      </c>
+      <c r="J16" s="9">
+        <v>7.7445119899512541E-2</v>
+      </c>
+      <c r="K16" s="9">
+        <v>5.0481167418029382E-2</v>
+      </c>
+      <c r="L16" s="9">
+        <v>7.620631391195011E-2</v>
+      </c>
+      <c r="M16" s="9">
+        <v>0.10642881674880988</v>
+      </c>
+      <c r="N16" s="9">
+        <v>7.4350375466997048E-2</v>
+      </c>
+      <c r="O16" s="9">
+        <v>0.10031845181025886</v>
+      </c>
+      <c r="P16" s="9">
+        <v>7.9256122442527319E-2</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>0.10421350228418329</v>
+      </c>
+      <c r="R16" s="9">
+        <v>0.10775742701608212</v>
+      </c>
+      <c r="S16" s="9">
+        <v>0.10196035897388417</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="8"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8">
+        <v>16</v>
+      </c>
+      <c r="E17" s="9">
+        <v>4.8543561339856871E-2</v>
+      </c>
+      <c r="F17" s="9">
+        <v>5.2530019945898516E-2</v>
+      </c>
+      <c r="G17" s="9">
+        <v>3.6990855651382708E-2</v>
+      </c>
+      <c r="H17" s="9">
+        <v>7.4133292814808197E-2</v>
+      </c>
+      <c r="I17" s="9">
+        <v>5.3918921226788159E-2</v>
+      </c>
+      <c r="J17" s="9">
+        <v>6.8688950554597977E-2</v>
+      </c>
+      <c r="K17" s="9">
+        <v>5.1087011217454521E-2</v>
+      </c>
+      <c r="L17" s="9">
+        <v>7.5493682412316659E-2</v>
+      </c>
+      <c r="M17" s="9">
+        <v>0.10176427201038793</v>
+      </c>
+      <c r="N17" s="9">
+        <v>7.8241066896407543E-2</v>
+      </c>
+      <c r="O17" s="9">
+        <v>9.7454601941723312E-2</v>
+      </c>
+      <c r="P17" s="9">
+        <v>7.8441401876696362E-2</v>
+      </c>
+      <c r="Q17" s="9">
+        <v>0.10260450698798164</v>
+      </c>
+      <c r="R17" s="9">
+        <v>0.10277968658897232</v>
+      </c>
+      <c r="S17" s="9">
+        <v>0.10672548843637893</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8">
+        <v>17</v>
+      </c>
+      <c r="E18" s="9">
+        <v>4.6053504526838492E-2</v>
+      </c>
+      <c r="F18" s="9">
+        <v>5.1131429364992029E-2</v>
+      </c>
+      <c r="G18" s="9">
+        <v>4.1452034696487679E-2</v>
+      </c>
+      <c r="H18" s="9">
+        <v>7.1433893866776288E-2</v>
+      </c>
+      <c r="I18" s="9">
+        <v>5.2970019189170242E-2</v>
+      </c>
+      <c r="J18" s="9">
+        <v>7.1738791710959066E-2</v>
+      </c>
+      <c r="K18" s="9">
+        <v>5.7147174331254484E-2</v>
+      </c>
+      <c r="L18" s="9">
+        <v>6.8118341096303991E-2</v>
+      </c>
+      <c r="M18" s="9">
+        <v>0.10066657030701162</v>
+      </c>
+      <c r="N18" s="9">
+        <v>6.8995826443900454E-2</v>
+      </c>
+      <c r="O18" s="9">
+        <v>9.6236526310588238E-2</v>
+      </c>
+      <c r="P18" s="9">
+        <v>7.3863820880090372E-2</v>
+      </c>
+      <c r="Q18" s="9">
+        <v>9.8645846296249479E-2</v>
+      </c>
+      <c r="R18" s="9">
+        <v>9.9970767565402394E-2</v>
+      </c>
+      <c r="S18" s="9">
+        <v>0.10566960682700363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="8"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>18</v>
+      </c>
+      <c r="E19" s="9">
+        <v>4.8293570987368438E-2</v>
+      </c>
+      <c r="F19" s="9">
+        <v>3.9966131600911822E-2</v>
+      </c>
+      <c r="G19" s="9">
+        <v>3.3807971059468353E-2</v>
+      </c>
+      <c r="H19" s="9">
+        <v>6.3117403484768478E-2</v>
+      </c>
+      <c r="I19" s="9">
+        <v>5.1434694612662757E-2</v>
+      </c>
+      <c r="J19" s="9">
+        <v>6.274477899331761E-2</v>
+      </c>
+      <c r="K19" s="9">
+        <v>5.6381189263668058E-2</v>
+      </c>
+      <c r="L19" s="9">
+        <v>6.0908315045680748E-2</v>
+      </c>
+      <c r="M19" s="9">
+        <v>9.8504330859942285E-2</v>
+      </c>
+      <c r="N19" s="9">
+        <v>7.2811114212088038E-2</v>
+      </c>
+      <c r="O19" s="9">
+        <v>8.8327127713299036E-2</v>
+      </c>
+      <c r="P19" s="9">
+        <v>6.8211856257027262E-2</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>0.10122801856390315</v>
+      </c>
+      <c r="R19" s="9">
+        <v>0.10242263799228225</v>
+      </c>
+      <c r="S19" s="9">
+        <v>0.10015611071721411</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="8"/>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>19</v>
+      </c>
+      <c r="E20" s="9">
+        <v>4.5364568865761963E-2</v>
+      </c>
+      <c r="F20" s="9">
+        <v>4.4443732013727068E-2</v>
+      </c>
+      <c r="G20" s="9">
+        <v>3.9305212775203394E-2</v>
+      </c>
+      <c r="H20" s="9">
+        <v>6.4400710352654267E-2</v>
+      </c>
+      <c r="I20" s="9">
+        <v>5.1864845007733709E-2</v>
+      </c>
+      <c r="J20" s="9">
+        <v>6.0186226891845294E-2</v>
+      </c>
+      <c r="K20" s="9">
+        <v>5.2311296187576302E-2</v>
+      </c>
+      <c r="L20" s="9">
+        <v>6.0742425824543755E-2</v>
+      </c>
+      <c r="M20" s="9">
+        <v>9.3422516448566487E-2</v>
+      </c>
+      <c r="N20" s="9">
+        <v>6.3274241316342475E-2</v>
+      </c>
+      <c r="O20" s="9">
+        <v>9.069471411274789E-2</v>
+      </c>
+      <c r="P20" s="9">
+        <v>6.6777760073557069E-2</v>
+      </c>
+      <c r="Q20" s="9">
+        <v>0.10139723941693744</v>
+      </c>
+      <c r="R20" s="9">
+        <v>0.10004325084104508</v>
+      </c>
+      <c r="S20" s="9">
+        <v>9.9183953405042255E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="8"/>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>20</v>
+      </c>
+      <c r="E21" s="9">
+        <v>5.2653726661138996E-2</v>
+      </c>
+      <c r="F21" s="9">
+        <v>3.3311310489775495E-2</v>
+      </c>
+      <c r="G21" s="9">
+        <v>4.1853603390059176E-2</v>
+      </c>
+      <c r="H21" s="9">
+        <v>5.9138783029610273E-2</v>
+      </c>
+      <c r="I21" s="9">
+        <v>4.9750702510242217E-2</v>
+      </c>
+      <c r="J21" s="9">
+        <v>5.6298183900701106E-2</v>
+      </c>
+      <c r="K21" s="9">
+        <v>4.7406225985845513E-2</v>
+      </c>
+      <c r="L21" s="9">
+        <v>6.033488004938229E-2</v>
+      </c>
+      <c r="M21" s="9">
+        <v>9.1000709355569004E-2</v>
+      </c>
+      <c r="N21" s="9">
+        <v>5.9828748839420721E-2</v>
+      </c>
+      <c r="O21" s="9">
+        <v>9.4143033592683695E-2</v>
+      </c>
+      <c r="P21" s="9">
+        <v>6.2407252610920491E-2</v>
+      </c>
+      <c r="Q21" s="9">
+        <v>9.5763898014137011E-2</v>
+      </c>
+      <c r="R21" s="9">
+        <v>9.6910218058182937E-2</v>
+      </c>
+      <c r="S21" s="9">
+        <v>0.10677015165844052</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>